--- a/example/default_w_busy.xlsx
+++ b/example/default_w_busy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -31,60 +31,33 @@
     <t>[20~40)</t>
   </si>
   <si>
-    <t>20.11%</t>
-  </si>
-  <si>
     <t>[40~60)</t>
   </si>
   <si>
-    <t>1.85%</t>
-  </si>
-  <si>
     <t>[260~280)</t>
   </si>
   <si>
-    <t>5.56%</t>
-  </si>
-  <si>
     <t>[300~320)</t>
   </si>
   <si>
-    <t>6.08%</t>
-  </si>
-  <si>
     <t>[320~340)</t>
   </si>
   <si>
-    <t>2.12%</t>
-  </si>
-  <si>
     <t>[340~360)</t>
   </si>
   <si>
-    <t>3.17%</t>
-  </si>
-  <si>
     <t>[360~380)</t>
   </si>
   <si>
-    <t>0.53%</t>
-  </si>
-  <si>
     <t>[380~400)</t>
   </si>
   <si>
     <t>[400~420)</t>
   </si>
   <si>
-    <t>0.79%</t>
-  </si>
-  <si>
     <t>[460~480)</t>
   </si>
   <si>
-    <t>1.32%</t>
-  </si>
-  <si>
     <t>[480~500)</t>
   </si>
   <si>
@@ -94,39 +67,24 @@
     <t>[580~600)</t>
   </si>
   <si>
-    <t>0.26%</t>
-  </si>
-  <si>
     <t>[660~680)</t>
   </si>
   <si>
     <t>[700~720)</t>
   </si>
   <si>
-    <t>1.59%</t>
-  </si>
-  <si>
     <t>[720~740)</t>
   </si>
   <si>
-    <t>2.91%</t>
-  </si>
-  <si>
     <t>[740~760)</t>
   </si>
   <si>
     <t>[760~780)</t>
   </si>
   <si>
-    <t>17.72%</t>
-  </si>
-  <si>
     <t>[780~800)</t>
   </si>
   <si>
-    <t>8.99%</t>
-  </si>
-  <si>
     <t>[800~820)</t>
   </si>
   <si>
@@ -142,9 +100,6 @@
     <t>[960~980)</t>
   </si>
   <si>
-    <t>1.06%</t>
-  </si>
-  <si>
     <t>[980~1000)</t>
   </si>
   <si>
@@ -290,12 +245,24 @@
   </si>
   <si>
     <t>[530160~530180)</t>
+  </si>
+  <si>
+    <t>Total Requests</t>
+  </si>
+  <si>
+    <t>Max Delay Time/us</t>
+  </si>
+  <si>
+    <t>Top percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -333,9 +300,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,228 +575,228 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$74</c:f>
+              <c:f>Sheet1!$D$2:$D$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="73"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>20.1058201058201</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>1.851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>5.555555555555555</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>6.084656084656085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>2.116402116402116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>3.174603174603174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0.7936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>1.322751322751323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0.7936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>0.7936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>2.116402116402116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6</c:v>
+                  <c:v>1.587301587301587</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11</c:v>
+                  <c:v>2.91005291005291</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>1.851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>67</c:v>
+                  <c:v>17.72486772486772</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34</c:v>
+                  <c:v>8.994708994708994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>1.851851851851852</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>1.058201058201058</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>0.7936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>0.7936507936507936</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4</c:v>
+                  <c:v>1.058201058201058</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2</c:v>
+                  <c:v>0.5291005291005291</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1</c:v>
+                  <c:v>0.2645502645502645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,7 +854,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Request Counts</a:t>
+                  <a:t>Percentage</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -920,13 +888,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1234,13 +1202,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1253,8 +1221,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1264,428 +1247,528 @@
       <c r="C2">
         <v>76</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="2">
+        <v>20.1058201058201</v>
+      </c>
+      <c r="F2">
+        <v>378</v>
+      </c>
+      <c r="G2">
+        <v>530169</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="2">
+        <v>20.1058201058201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="2">
+        <v>1.851851851851852</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>17.72486772486772</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="2">
+        <v>5.555555555555555</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>8.994708994708994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="2">
+        <v>6.084656084656085</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6.084656084656085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="2">
+        <v>2.116402116402116</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.555555555555555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="2">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.174603174603174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="2">
+        <v>0.5291005291005291</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2.91005291005291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="2">
+        <v>0.5291005291005291</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.116402116402116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="2">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2.116402116402116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="2">
+        <v>1.322751322751323</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.851851851851852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="I12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="J12" s="2">
+        <v>1.851851851851852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="2">
+        <v>0.7936507936507936</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.851851851851852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.587301587301587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2">
+        <v>2.116402116402116</v>
+      </c>
+      <c r="I15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="J15" s="2">
+        <v>1.322751322751323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.058201058201058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="2">
+        <v>2.91005291005291</v>
+      </c>
+      <c r="J17">
+        <f>SUM(J2:J16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="2">
+        <v>1.851851851851852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>67</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="2">
+        <v>17.72486772486772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>34</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="2">
+        <v>8.994708994708994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="2">
+        <v>1.851851851851852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="2">
+        <v>0.5291005291005291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="2">
+        <v>1.058201058201058</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="2">
+        <v>0.5291005291005291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="2">
+        <v>0.2645502645502645</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="2">
+        <v>0.5291005291005291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="2">
+        <v>0.7936507936507936</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
-        <v>26</v>
+      <c r="D32" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1693,13 +1776,13 @@
         <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" t="s">
-        <v>26</v>
+      <c r="D33" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1707,13 +1790,13 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
-        <v>26</v>
+      <c r="D34" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1721,13 +1804,13 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" t="s">
-        <v>26</v>
+      <c r="D35" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1735,13 +1818,13 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="s">
-        <v>26</v>
+      <c r="D36" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1749,13 +1832,13 @@
         <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" t="s">
-        <v>26</v>
+      <c r="D37" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1763,13 +1846,13 @@
         <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>26</v>
+      <c r="D38" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1777,13 +1860,13 @@
         <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>26</v>
+      <c r="D39" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1791,13 +1874,13 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>26</v>
+      <c r="D40" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1805,13 +1888,13 @@
         <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" t="s">
-        <v>17</v>
+      <c r="D41" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1819,13 +1902,13 @@
         <v>123</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>26</v>
+      <c r="D42" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1833,13 +1916,13 @@
         <v>125</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>26</v>
+      <c r="D43" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1847,13 +1930,13 @@
         <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>26</v>
+      <c r="D44" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1861,13 +1944,13 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>26</v>
+      <c r="D45" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1875,13 +1958,13 @@
         <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>26</v>
+      <c r="D46" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1889,13 +1972,13 @@
         <v>131</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>26</v>
+      <c r="D47" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1903,13 +1986,13 @@
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>26</v>
+      <c r="D48" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1917,13 +2000,13 @@
         <v>133</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>26</v>
+      <c r="D49" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1931,13 +2014,13 @@
         <v>139</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
-        <v>17</v>
+      <c r="D50" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1945,13 +2028,13 @@
         <v>140</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
-      <c r="D51" t="s">
-        <v>26</v>
+      <c r="D51" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1959,13 +2042,13 @@
         <v>141</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" t="s">
-        <v>26</v>
+      <c r="D52" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1973,13 +2056,13 @@
         <v>144</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
-        <v>17</v>
+      <c r="D53" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1987,13 +2070,13 @@
         <v>145</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
-        <v>20</v>
+      <c r="D54" s="2">
+        <v>0.7936507936507936</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2001,13 +2084,13 @@
         <v>146</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
-      <c r="D55" t="s">
-        <v>26</v>
+      <c r="D55" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2015,13 +2098,13 @@
         <v>147</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
-      <c r="D56" t="s">
-        <v>42</v>
+      <c r="D56" s="2">
+        <v>1.058201058201058</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2029,13 +2112,13 @@
         <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" t="s">
-        <v>26</v>
+      <c r="D57" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2043,13 +2126,13 @@
         <v>149</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" t="s">
-        <v>26</v>
+      <c r="D58" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2057,13 +2140,13 @@
         <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" t="s">
-        <v>26</v>
+      <c r="D59" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2071,13 +2154,13 @@
         <v>156</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
-      <c r="D60" t="s">
-        <v>17</v>
+      <c r="D60" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2085,13 +2168,13 @@
         <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
-      <c r="D61" t="s">
-        <v>26</v>
+      <c r="D61" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2099,13 +2182,13 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
-      <c r="D62" t="s">
-        <v>26</v>
+      <c r="D62" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2113,13 +2196,13 @@
         <v>169</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" t="s">
-        <v>26</v>
+      <c r="D63" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2127,13 +2210,13 @@
         <v>172</v>
       </c>
       <c r="B64" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
-      <c r="D64" t="s">
-        <v>26</v>
+      <c r="D64" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2141,13 +2224,13 @@
         <v>177</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
-      <c r="D65" t="s">
-        <v>26</v>
+      <c r="D65" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2155,13 +2238,13 @@
         <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
-      <c r="D66" t="s">
-        <v>26</v>
+      <c r="D66" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2169,13 +2252,13 @@
         <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
-      <c r="D67" t="s">
-        <v>26</v>
+      <c r="D67" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2183,13 +2266,13 @@
         <v>190</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
-      <c r="D68" t="s">
-        <v>17</v>
+      <c r="D68" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2197,13 +2280,13 @@
         <v>194</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
-      <c r="D69" t="s">
-        <v>17</v>
+      <c r="D69" s="2">
+        <v>0.5291005291005291</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2211,13 +2294,13 @@
         <v>196</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
-      <c r="D70" t="s">
-        <v>26</v>
+      <c r="D70" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2225,13 +2308,13 @@
         <v>199</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" t="s">
-        <v>26</v>
+      <c r="D71" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2239,13 +2322,13 @@
         <v>201</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
-      <c r="D72" t="s">
-        <v>26</v>
+      <c r="D72" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2253,13 +2336,13 @@
         <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" t="s">
-        <v>26</v>
+      <c r="D73" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2267,13 +2350,13 @@
         <v>26508</v>
       </c>
       <c r="B74" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
-      <c r="D74" t="s">
-        <v>26</v>
+      <c r="D74" s="2">
+        <v>0.2645502645502645</v>
       </c>
     </row>
   </sheetData>
